--- a/Convidados.xlsx
+++ b/Convidados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlissonAlmeid4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\AlissonAlmeid4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FB22CDF-2B2E-4D8B-BE7F-A3A98006DA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="211">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -185,9 +186,6 @@
     <t>Douglas (Primo)</t>
   </si>
   <si>
-    <t>Eurides (Tia)</t>
-  </si>
-  <si>
     <t>Paulo</t>
   </si>
   <si>
@@ -314,9 +312,6 @@
     <t>Edmeia</t>
   </si>
   <si>
-    <t xml:space="preserve">Cesarina </t>
-  </si>
-  <si>
     <t>Nitinho (Tio)</t>
   </si>
   <si>
@@ -663,15 +658,12 @@
   </si>
   <si>
     <t>Talita</t>
-  </si>
-  <si>
-    <t>Genivaldo X Roseane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -990,11 +982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,21 +1015,21 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1055,19 +1047,19 @@
         <v>96</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1">
         <v>172</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>40</v>
@@ -1075,7 +1067,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -1093,27 +1085,27 @@
         <v>97</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1">
         <v>173</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1131,24 +1123,24 @@
         <v>98</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="1">
         <v>174</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -1166,24 +1158,24 @@
         <v>99</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1">
         <v>175</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -1201,21 +1193,18 @@
         <v>100</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="1">
         <v>176</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
@@ -1233,18 +1222,18 @@
         <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="1">
         <v>177</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1256,24 +1245,24 @@
         <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1">
         <v>102</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="1">
         <v>178</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1285,25 +1274,22 @@
         <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="1">
         <v>103</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="1">
         <v>179</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
@@ -1314,19 +1300,19 @@
         <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="1">
         <v>104</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="1">
         <v>180</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1346,13 +1332,13 @@
         <v>105</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1">
         <v>181</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1372,13 +1358,13 @@
         <v>106</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="1">
         <v>182</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1398,13 +1384,13 @@
         <v>107</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="1">
         <v>183</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1412,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
@@ -1424,13 +1410,13 @@
         <v>108</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="1">
         <v>184</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
@@ -1450,13 +1436,13 @@
         <v>109</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="1">
         <v>185</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
@@ -1464,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1">
         <v>34</v>
@@ -1476,13 +1462,13 @@
         <v>110</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="1">
         <v>186</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
@@ -1502,13 +1488,13 @@
         <v>111</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="1">
         <v>187</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
@@ -1534,7 +1520,7 @@
         <v>188</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
@@ -1542,7 +1528,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1">
         <v>37</v>
@@ -1554,13 +1540,13 @@
         <v>113</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I21" s="1">
         <v>189</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
@@ -1568,25 +1554,25 @@
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1">
         <v>38</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1">
         <v>114</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I22" s="1">
         <v>190</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
@@ -1600,13 +1586,13 @@
         <v>115</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I23" s="1">
         <v>191</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
@@ -1620,13 +1606,13 @@
         <v>116</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I24" s="1">
         <v>192</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
@@ -1640,13 +1626,13 @@
         <v>117</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I25" s="1">
         <v>193</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
@@ -1660,13 +1646,13 @@
         <v>118</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I26" s="1">
         <v>194</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
@@ -1674,19 +1660,19 @@
         <v>43</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="1">
         <v>119</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I27" s="1">
         <v>195</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
@@ -1706,7 +1692,7 @@
         <v>196</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
@@ -1720,13 +1706,13 @@
         <v>121</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="1">
         <v>197</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
@@ -1740,13 +1726,13 @@
         <v>122</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I30" s="1">
         <v>198</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
@@ -1760,13 +1746,13 @@
         <v>123</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I31" s="1">
         <v>199</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
@@ -1780,13 +1766,13 @@
         <v>124</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I32" s="1">
         <v>200</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
@@ -1800,7 +1786,7 @@
         <v>125</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I33" s="1">
         <v>201</v>
@@ -1820,13 +1806,13 @@
         <v>126</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I34" s="1">
         <v>202</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
@@ -1834,19 +1820,19 @@
         <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1">
         <v>127</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I35" s="1">
         <v>203</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
@@ -1860,13 +1846,13 @@
         <v>128</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I36" s="1">
         <v>204</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
@@ -1880,13 +1866,13 @@
         <v>129</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" s="1">
         <v>205</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
@@ -1900,13 +1886,13 @@
         <v>130</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" s="1">
         <v>206</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
@@ -1920,13 +1906,13 @@
         <v>131</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I39" s="1">
         <v>207</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
@@ -1940,13 +1926,13 @@
         <v>132</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I40" s="1">
         <v>208</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.25">
@@ -1960,13 +1946,13 @@
         <v>133</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I41" s="1">
         <v>209</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.25">
@@ -1980,13 +1966,13 @@
         <v>134</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I42" s="1">
         <v>210</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
@@ -2000,7 +1986,7 @@
         <v>135</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I43" s="1">
         <v>211</v>
@@ -2020,13 +2006,13 @@
         <v>136</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I44" s="1">
         <v>212</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
@@ -2060,13 +2046,13 @@
         <v>138</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I46" s="1">
         <v>214</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="5:10" x14ac:dyDescent="0.25">
@@ -2074,7 +2060,7 @@
         <v>63</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1">
         <v>139</v>
@@ -2086,47 +2072,41 @@
         <v>215</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E48" s="1">
         <v>64</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G48" s="1">
         <v>140</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I48" s="1">
         <v>216</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E49" s="1">
         <v>65</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G49" s="1">
         <v>141</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I49" s="1">
         <v>217</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.25">
@@ -2134,7 +2114,7 @@
         <v>66</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50" s="1">
         <v>142</v>
@@ -2146,7 +2126,7 @@
         <v>218</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="5:10" x14ac:dyDescent="0.25">
@@ -2154,28 +2134,25 @@
         <v>67</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" s="1">
         <v>143</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I51" s="1">
         <v>219</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E52" s="1">
         <v>68</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G52" s="1">
         <v>144</v>
       </c>
@@ -2186,7 +2163,7 @@
         <v>220</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="5:10" x14ac:dyDescent="0.25">
@@ -2194,19 +2171,19 @@
         <v>69</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="1">
         <v>145</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I53" s="1">
         <v>221</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="5:10" x14ac:dyDescent="0.25">
@@ -2214,19 +2191,19 @@
         <v>70</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G54" s="1">
         <v>146</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I54" s="1">
         <v>222</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
@@ -2234,19 +2211,19 @@
         <v>71</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G55" s="1">
         <v>147</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I55" s="1">
         <v>223</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.25">
@@ -2254,13 +2231,13 @@
         <v>72</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G56" s="1">
         <v>148</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I56" s="1">
         <v>224</v>
@@ -2274,19 +2251,19 @@
         <v>73</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G57" s="1">
         <v>149</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I57" s="1">
         <v>225</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
@@ -2294,19 +2271,19 @@
         <v>74</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G58" s="1">
         <v>150</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I58" s="1">
         <v>226</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
@@ -2314,19 +2291,19 @@
         <v>75</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G59" s="1">
         <v>151</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I59" s="1">
         <v>227</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="5:10" x14ac:dyDescent="0.25">
@@ -2334,19 +2311,19 @@
         <v>76</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G60" s="1">
         <v>152</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I60" s="1">
         <v>228</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="5:10" x14ac:dyDescent="0.25">
@@ -2354,7 +2331,7 @@
         <v>77</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G61" s="1">
         <v>153</v>
@@ -2366,7 +2343,7 @@
         <v>229</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.25">
@@ -2374,19 +2351,19 @@
         <v>78</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="1">
         <v>154</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I62" s="1">
         <v>230</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="5:10" x14ac:dyDescent="0.25">
@@ -2394,19 +2371,19 @@
         <v>79</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="1">
         <v>155</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I63" s="1">
         <v>231</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
@@ -2414,19 +2391,19 @@
         <v>80</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="1">
         <v>156</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I64" s="1">
         <v>232</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="5:10" x14ac:dyDescent="0.25">
@@ -2434,19 +2411,19 @@
         <v>81</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" s="1">
         <v>157</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I65" s="1">
         <v>233</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="5:10" x14ac:dyDescent="0.25">
@@ -2454,19 +2431,19 @@
         <v>82</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G66" s="1">
         <v>158</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I66" s="1">
         <v>234</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="5:10" x14ac:dyDescent="0.25">
@@ -2474,19 +2451,19 @@
         <v>83</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G67" s="1">
         <v>159</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I67" s="1">
         <v>235</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="5:10" x14ac:dyDescent="0.25">
@@ -2494,19 +2471,19 @@
         <v>84</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G68" s="1">
         <v>160</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I68" s="1">
         <v>236</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="5:10" x14ac:dyDescent="0.25">
@@ -2514,19 +2491,19 @@
         <v>85</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G69" s="1">
         <v>161</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I69" s="1">
         <v>237</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="5:10" x14ac:dyDescent="0.25">
@@ -2534,19 +2511,19 @@
         <v>86</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G70" s="1">
         <v>162</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I70" s="1">
         <v>238</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="5:10" x14ac:dyDescent="0.25">
@@ -2554,13 +2531,13 @@
         <v>87</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G71" s="1">
         <v>163</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="5:10" x14ac:dyDescent="0.25">
@@ -2568,13 +2545,13 @@
         <v>88</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G72" s="1">
         <v>164</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="5:10" x14ac:dyDescent="0.25">
@@ -2582,13 +2559,13 @@
         <v>89</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G73" s="1">
         <v>165</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="5:10" x14ac:dyDescent="0.25">
@@ -2602,7 +2579,7 @@
         <v>166</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="5:10" x14ac:dyDescent="0.25">
@@ -2616,7 +2593,7 @@
         <v>167</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="5:10" x14ac:dyDescent="0.25">
@@ -2624,13 +2601,13 @@
         <v>92</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G76" s="1">
         <v>168</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="5:10" x14ac:dyDescent="0.25">
@@ -2638,13 +2615,13 @@
         <v>93</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G77" s="1">
         <v>169</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="5:10" x14ac:dyDescent="0.25">
@@ -2658,7 +2635,7 @@
         <v>170</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="5:10" x14ac:dyDescent="0.25">
@@ -2666,13 +2643,13 @@
         <v>95</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1">
         <v>171</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Convidados.xlsx
+++ b/Convidados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\AlissonAlmeid4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\AlissonAlmeid4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FB22CDF-2B2E-4D8B-BE7F-A3A98006DA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8114BFA0-A6CF-4BE0-83A4-9963D45126E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="212">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -522,9 +522,6 @@
     <t>Yago</t>
   </si>
   <si>
-    <t>Tati</t>
-  </si>
-  <si>
     <t>Isaque</t>
   </si>
   <si>
@@ -658,6 +655,12 @@
   </si>
   <si>
     <t>Talita</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>Tatiana</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +686,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,10 +714,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69:J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,18 +1035,18 @@
         <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1040,23 +1057,23 @@
       <c r="E4" s="1">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>96</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="I4" s="1">
         <v>172</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>71</v>
@@ -1067,10 +1084,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1078,61 +1092,61 @@
       <c r="E5" s="1">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>97</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="1">
         <v>173</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>149</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>78</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>98</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I6" s="1">
         <v>174</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="3" t="s">
         <v>150</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>69</v>
@@ -1140,270 +1154,270 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>23</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>99</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I7" s="1">
         <v>175</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="3" t="s">
         <v>151</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="1">
         <v>176</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="1">
         <v>101</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I9" s="1">
         <v>177</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="1">
         <v>102</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I10" s="1">
         <v>178</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1">
         <v>27</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="G11" s="1">
         <v>103</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I11" s="1">
         <v>179</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1">
         <v>28</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G12" s="1">
         <v>104</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I12" s="1">
         <v>180</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>29</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="1">
         <v>105</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="3" t="s">
         <v>75</v>
       </c>
       <c r="I13" s="1">
         <v>181</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1">
         <v>30</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="1">
         <v>106</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="1">
         <v>182</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="1">
         <v>107</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I15" s="1">
         <v>183</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="1">
@@ -1415,223 +1429,223 @@
       <c r="I16" s="1">
         <v>184</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1">
         <v>33</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="1">
         <v>109</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I17" s="1">
         <v>185</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="1">
         <v>34</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="1">
         <v>110</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="1">
         <v>186</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1">
         <v>35</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1">
         <v>111</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="1">
         <v>187</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="1">
         <v>36</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="1">
         <v>112</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I20" s="1">
         <v>188</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E21" s="1">
         <v>37</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1">
         <v>113</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I21" s="1">
         <v>189</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E22" s="1">
         <v>38</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G22" s="1">
         <v>114</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I22" s="1">
         <v>190</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>165</v>
+      <c r="J22" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <v>39</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1">
         <v>115</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>106</v>
       </c>
       <c r="I23" s="1">
         <v>191</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>206</v>
+      <c r="J23" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <v>40</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1">
         <v>116</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="3" t="s">
         <v>107</v>
       </c>
       <c r="I24" s="1">
         <v>192</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>166</v>
+      <c r="J24" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <v>41</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1">
         <v>117</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I25" s="1">
         <v>193</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1639,39 +1653,39 @@
       <c r="E26" s="1">
         <v>42</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1">
         <v>118</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="I26" s="1">
         <v>194</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>171</v>
+      <c r="J26" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <v>43</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G27" s="1">
         <v>119</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="3" t="s">
         <v>110</v>
       </c>
       <c r="I27" s="1">
         <v>195</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1679,59 +1693,59 @@
       <c r="E28" s="1">
         <v>44</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="1">
         <v>120</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I28" s="1">
         <v>196</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>172</v>
+      <c r="J28" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E29" s="1">
         <v>45</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G29" s="1">
         <v>121</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I29" s="1">
         <v>197</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>183</v>
+      <c r="J29" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E30" s="1">
         <v>46</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="1">
         <v>122</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I30" s="1">
         <v>198</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1739,19 +1753,19 @@
       <c r="E31" s="1">
         <v>47</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G31" s="1">
         <v>123</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>111</v>
       </c>
       <c r="I31" s="1">
         <v>199</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1759,19 +1773,19 @@
       <c r="E32" s="1">
         <v>48</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="1">
         <v>124</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I32" s="1">
         <v>200</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1779,19 +1793,19 @@
       <c r="E33" s="1">
         <v>49</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="1">
         <v>125</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I33" s="1">
         <v>201</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1799,19 +1813,19 @@
       <c r="E34" s="1">
         <v>50</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G34" s="1">
         <v>126</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>114</v>
       </c>
       <c r="I34" s="1">
         <v>202</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1819,39 +1833,39 @@
       <c r="E35" s="1">
         <v>51</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G35" s="1">
         <v>127</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I35" s="1">
         <v>203</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>184</v>
+      <c r="J35" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="1">
         <v>52</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G36" s="1">
         <v>128</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>115</v>
       </c>
       <c r="I36" s="1">
         <v>204</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1859,79 +1873,79 @@
       <c r="E37" s="1">
         <v>53</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G37" s="1">
         <v>129</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="3" t="s">
         <v>116</v>
       </c>
       <c r="I37" s="1">
         <v>205</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>185</v>
+      <c r="J37" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="1">
         <v>54</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G38" s="1">
         <v>130</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="3" t="s">
         <v>117</v>
       </c>
       <c r="I38" s="1">
         <v>206</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>186</v>
+      <c r="J38" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" s="1">
         <v>55</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="1">
         <v>131</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>118</v>
       </c>
       <c r="I39" s="1">
         <v>207</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>187</v>
+      <c r="J39" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" s="1">
         <v>56</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G40" s="1">
         <v>132</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>111</v>
       </c>
       <c r="I40" s="1">
         <v>208</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1939,59 +1953,59 @@
       <c r="E41" s="1">
         <v>57</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G41" s="1">
         <v>133</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="1">
         <v>209</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>188</v>
+      <c r="J41" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" s="1">
         <v>58</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G42" s="1">
         <v>134</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="3" t="s">
         <v>119</v>
       </c>
       <c r="I42" s="1">
         <v>210</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>189</v>
+      <c r="J42" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" s="1">
         <v>59</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G43" s="1">
         <v>135</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I43" s="1">
         <v>211</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1999,7 +2013,7 @@
       <c r="E44" s="1">
         <v>60</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G44" s="1">
@@ -2011,27 +2025,27 @@
       <c r="I44" s="1">
         <v>212</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>190</v>
+      <c r="J44" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" s="1">
         <v>61</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G45" s="1">
         <v>137</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I45" s="1">
         <v>213</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2039,39 +2053,39 @@
       <c r="E46" s="1">
         <v>62</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G46" s="1">
         <v>138</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I46" s="1">
         <v>214</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>193</v>
+      <c r="J46" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E47" s="1">
         <v>63</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G47" s="1">
         <v>139</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="1">
         <v>215</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2082,14 +2096,14 @@
       <c r="G48" s="1">
         <v>140</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I48" s="1">
         <v>216</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>191</v>
+      <c r="J48" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="5:10" x14ac:dyDescent="0.25">
@@ -2099,13 +2113,13 @@
       <c r="G49" s="1">
         <v>141</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I49" s="1">
         <v>217</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2113,40 +2127,40 @@
       <c r="E50" s="1">
         <v>66</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G50" s="1">
         <v>142</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="1">
         <v>218</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>192</v>
+      <c r="J50" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E51" s="1">
         <v>67</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G51" s="1">
         <v>143</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I51" s="1">
         <v>219</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>194</v>
+      <c r="J51" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="5:10" x14ac:dyDescent="0.25">
@@ -2156,33 +2170,33 @@
       <c r="G52" s="1">
         <v>144</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I52" s="1">
         <v>220</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>195</v>
+      <c r="J52" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E53" s="1">
         <v>69</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G53" s="1">
         <v>145</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="3" t="s">
         <v>125</v>
       </c>
       <c r="I53" s="1">
         <v>221</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2190,39 +2204,39 @@
       <c r="E54" s="1">
         <v>70</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G54" s="1">
         <v>146</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="3" t="s">
         <v>126</v>
       </c>
       <c r="I54" s="1">
         <v>222</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>196</v>
+      <c r="J54" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E55" s="1">
         <v>71</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G55" s="1">
         <v>147</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="3" t="s">
         <v>127</v>
       </c>
       <c r="I55" s="1">
         <v>223</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2230,19 +2244,19 @@
       <c r="E56" s="1">
         <v>72</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G56" s="1">
         <v>148</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="3" t="s">
         <v>128</v>
       </c>
       <c r="I56" s="1">
         <v>224</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2250,219 +2264,219 @@
       <c r="E57" s="1">
         <v>73</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G57" s="1">
         <v>149</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I57" s="1">
         <v>225</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>197</v>
+      <c r="J57" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E58" s="1">
         <v>74</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G58" s="1">
         <v>150</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I58" s="1">
         <v>226</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>198</v>
+      <c r="J58" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E59" s="1">
         <v>75</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G59" s="1">
         <v>151</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="2" t="s">
         <v>126</v>
       </c>
       <c r="I59" s="1">
         <v>227</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>184</v>
+      <c r="J59" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E60" s="1">
         <v>76</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G60" s="1">
         <v>152</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I60" s="1">
         <v>228</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>199</v>
+      <c r="J60" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E61" s="1">
         <v>77</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G61" s="1">
         <v>153</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>16</v>
+      <c r="H61" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="I61" s="1">
         <v>229</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>200</v>
+      <c r="J61" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E62" s="1">
         <v>78</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G62" s="1">
         <v>154</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="3" t="s">
         <v>132</v>
       </c>
       <c r="I62" s="1">
         <v>230</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>201</v>
+      <c r="J62" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E63" s="1">
         <v>79</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G63" s="1">
         <v>155</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="3" t="s">
         <v>133</v>
       </c>
       <c r="I63" s="1">
         <v>231</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>202</v>
+      <c r="J63" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E64" s="1">
         <v>80</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G64" s="1">
         <v>156</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I64" s="1">
         <v>232</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>203</v>
+      <c r="J64" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E65" s="1">
         <v>81</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G65" s="1">
         <v>157</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="3" t="s">
         <v>134</v>
       </c>
       <c r="I65" s="1">
         <v>233</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>204</v>
+      <c r="J65" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E66" s="1">
         <v>82</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G66" s="1">
         <v>158</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="2" t="s">
         <v>135</v>
       </c>
       <c r="I66" s="1">
         <v>234</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>205</v>
+      <c r="J66" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E67" s="1">
         <v>83</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="3" t="s">
         <v>96</v>
       </c>
       <c r="G67" s="1">
         <v>159</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I67" s="1">
         <v>235</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2470,19 +2484,19 @@
       <c r="E68" s="1">
         <v>84</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G68" s="1">
         <v>160</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="2" t="s">
         <v>136</v>
       </c>
       <c r="I68" s="1">
         <v>236</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2490,53 +2504,53 @@
       <c r="E69" s="1">
         <v>85</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G69" s="1">
         <v>161</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="3" t="s">
         <v>137</v>
       </c>
       <c r="I69" s="1">
         <v>237</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>209</v>
+      <c r="J69" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E70" s="1">
         <v>86</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G70" s="1">
         <v>162</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="3" t="s">
         <v>138</v>
       </c>
       <c r="I70" s="1">
         <v>238</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>210</v>
+      <c r="J70" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E71" s="1">
         <v>87</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G71" s="1">
         <v>163</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2544,13 +2558,13 @@
       <c r="E72" s="1">
         <v>88</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G72" s="1">
         <v>164</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2558,13 +2572,13 @@
       <c r="E73" s="1">
         <v>89</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G73" s="1">
         <v>165</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2572,13 +2586,13 @@
       <c r="E74" s="1">
         <v>90</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G74" s="1">
         <v>166</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2586,13 +2600,13 @@
       <c r="E75" s="1">
         <v>91</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G75" s="1">
         <v>167</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2600,13 +2614,13 @@
       <c r="E76" s="1">
         <v>92</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G76" s="1">
         <v>168</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2614,13 +2628,13 @@
       <c r="E77" s="1">
         <v>93</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G77" s="1">
         <v>169</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2628,13 +2642,13 @@
       <c r="E78" s="1">
         <v>94</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G78" s="1">
         <v>170</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2642,13 +2656,13 @@
       <c r="E79" s="1">
         <v>95</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G79" s="1">
         <v>171</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="2" t="s">
         <v>147</v>
       </c>
     </row>

--- a/Convidados.xlsx
+++ b/Convidados.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\AlissonAlmeid4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlissonAlmeid4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CDAA8E-2D30-41FB-B62E-16CE686330F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="217">
   <si>
     <t>Padrinhos</t>
   </si>
@@ -450,9 +449,6 @@
     <t>Miguel</t>
   </si>
   <si>
-    <t>Edte</t>
-  </si>
-  <si>
     <t>Amanda</t>
   </si>
   <si>
@@ -555,12 +551,6 @@
     <t>Rubens X Luciene</t>
   </si>
   <si>
-    <t>Rogerio X Marcia</t>
-  </si>
-  <si>
-    <t>Claudinei X Karina</t>
-  </si>
-  <si>
     <t>Alceu X Neia</t>
   </si>
   <si>
@@ -673,12 +663,24 @@
   </si>
   <si>
     <t>Priscila</t>
+  </si>
+  <si>
+    <t>Edite</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Mestre Cerimonia</t>
+  </si>
+  <si>
+    <t>Placas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -741,6 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,11 +1023,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="F87" sqref="F87:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,32 +1042,36 @@
     <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1075,19 +1082,22 @@
       <c r="F4" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L4" s="1" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1101,19 +1111,16 @@
       <c r="G5" s="1">
         <v>181</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>168</v>
+      <c r="K5" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1131,18 +1138,18 @@
         <v>182</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1162,16 +1169,13 @@
       <c r="H7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>176</v>
+      <c r="J7" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -1191,10 +1195,13 @@
       <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>177</v>
+      <c r="J8" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -1214,11 +1221,11 @@
       <c r="H9" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="J9" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>6</v>
       </c>
@@ -1237,11 +1244,11 @@
       <c r="H10" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>7</v>
       </c>
@@ -1261,10 +1268,10 @@
         <v>53</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>8</v>
       </c>
@@ -1281,13 +1288,13 @@
         <v>188</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -1298,7 +1305,7 @@
         <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G13" s="1">
         <v>189</v>
@@ -1307,7 +1314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -1324,13 +1331,13 @@
         <v>190</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -1347,13 +1354,13 @@
         <v>191</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -1370,10 +1377,10 @@
         <v>192</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
@@ -1413,10 +1420,7 @@
         <v>194</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1438,9 +1442,6 @@
       <c r="H19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
@@ -1459,10 +1460,7 @@
         <v>196</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
@@ -1482,10 +1480,7 @@
         <v>197</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
@@ -1505,7 +1500,7 @@
         <v>198</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
@@ -1548,7 +1543,7 @@
         <v>200</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>94</v>
@@ -1617,7 +1612,7 @@
         <v>203</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>60</v>
@@ -1640,7 +1635,7 @@
         <v>204</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
@@ -1654,13 +1649,13 @@
         <v>115</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G29" s="1">
         <v>205</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>95</v>
@@ -1677,13 +1672,13 @@
         <v>116</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G30" s="1">
         <v>206</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>96</v>
@@ -1700,13 +1695,13 @@
         <v>117</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G31" s="1">
         <v>207</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>97</v>
@@ -1729,7 +1724,7 @@
         <v>208</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>98</v>
@@ -1752,7 +1747,7 @@
         <v>209</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>99</v>
@@ -1775,7 +1770,7 @@
         <v>210</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
@@ -1795,10 +1790,10 @@
         <v>211</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
@@ -1818,10 +1813,10 @@
         <v>212</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
@@ -1864,7 +1859,7 @@
         <v>139</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
@@ -1887,7 +1882,7 @@
         <v>104</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
@@ -1910,7 +1905,7 @@
         <v>111</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
@@ -1953,7 +1948,7 @@
         <v>113</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
@@ -1976,7 +1971,7 @@
         <v>114</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
@@ -2012,8 +2007,8 @@
       <c r="E45" s="1">
         <v>131</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>184</v>
+      <c r="F45" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="G45" s="1">
         <v>221</v>
@@ -2022,7 +2017,7 @@
         <v>115</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
@@ -2035,11 +2030,14 @@
       <c r="E46" s="1">
         <v>132</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G46" s="1">
         <v>222</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>16</v>
@@ -2055,11 +2053,14 @@
       <c r="E47" s="1">
         <v>133</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="3" t="s">
         <v>140</v>
       </c>
       <c r="G47" s="1">
         <v>223</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
@@ -2072,14 +2073,17 @@
       <c r="E48" s="1">
         <v>134</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>141</v>
+      <c r="F48" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="G48" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -2089,14 +2093,17 @@
       <c r="E49" s="1">
         <v>135</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>142</v>
+      <c r="F49" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="G49" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -2113,7 +2120,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -2130,7 +2137,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -2147,7 +2154,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -2164,7 +2171,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -2215,7 +2222,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -2232,7 +2239,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -2246,7 +2253,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -2260,7 +2267,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -2274,7 +2281,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -2288,7 +2295,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -2302,7 +2309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -2313,10 +2320,10 @@
         <v>149</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -2439,7 +2446,7 @@
         <v>158</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
@@ -2467,7 +2474,7 @@
         <v>160</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
@@ -2481,7 +2488,7 @@
         <v>161</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
@@ -2495,7 +2502,7 @@
         <v>162</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
@@ -2509,7 +2516,7 @@
         <v>163</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
@@ -2523,7 +2530,7 @@
         <v>164</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
@@ -2536,8 +2543,8 @@
       <c r="E79" s="1">
         <v>165</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>153</v>
+      <c r="F79" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
@@ -2550,8 +2557,8 @@
       <c r="E80" s="1">
         <v>166</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>154</v>
+      <c r="F80" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
@@ -2564,8 +2571,8 @@
       <c r="E81" s="1">
         <v>167</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>155</v>
+      <c r="F81" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
@@ -2578,7 +2585,7 @@
       <c r="E82" s="1">
         <v>168</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2593,7 +2600,7 @@
         <v>169</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
@@ -2607,7 +2614,7 @@
         <v>170</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.25">
@@ -2621,7 +2628,7 @@
         <v>171</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.25">
@@ -2629,13 +2636,13 @@
         <v>82</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E86" s="1">
         <v>172</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
@@ -2643,13 +2650,13 @@
         <v>83</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E87" s="1">
         <v>173</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>209</v>
+      <c r="F87" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.25">
@@ -2659,8 +2666,8 @@
       <c r="E88" s="1">
         <v>174</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>203</v>
+      <c r="F88" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
@@ -2670,8 +2677,8 @@
       <c r="E89" s="1">
         <v>175</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>165</v>
+      <c r="F89" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.25">
@@ -2681,7 +2688,7 @@
       <c r="E90" s="1">
         <v>176</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2693,7 +2700,7 @@
         <v>177</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.25">
@@ -2715,7 +2722,7 @@
         <v>179</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.25">
